--- a/Planilha gastos 2020.xlsx
+++ b/Planilha gastos 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Documents\pasta-teste-tony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E41643F-BC55-4485-80D6-65908689B6E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B06BBC-9D96-486A-999A-E73D2170D207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4546907D-A829-48A2-AAC3-4A7BF5B3E65D}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{4546907D-A829-48A2-AAC3-4A7BF5B3E65D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Aluguel</t>
   </si>
   <si>
-    <t>Bolsa</t>
-  </si>
-  <si>
     <t>outros</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">Viagem </t>
+  </si>
+  <si>
+    <t>kkkkk</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A5" sqref="A5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,56 +698,56 @@
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -765,7 +765,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B6" s="6">
         <v>2200</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -831,7 +831,7 @@
     </row>
     <row r="8" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -891,7 +891,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10">
@@ -931,7 +931,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="10">
         <v>59.9</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="10">
         <v>1399.36</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="10">
         <v>20</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="25" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="13">
         <f t="shared" ref="B25:I25" si="0">SUM(B9:B24)</f>
